--- a/tests/derivedSignals_create.xlsx
+++ b/tests/derivedSignals_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZ4R1B\Desktop\AAM API\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZ4R1B\Desktop\aam-api\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1D1D96-B243-43F6-AB4D-E19056DDD4A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55E2AE-C8BF-44A0-83EC-01BA894931BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{263299D3-D60F-4EE8-A2EC-0B314DB1507D}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{263299D3-D60F-4EE8-A2EC-0B314DB1507D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>sourceKey</t>
   </si>
@@ -45,26 +45,128 @@
     <t>targetValue</t>
   </si>
   <si>
-    <t>d_event</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>target</t>
+    <t>d_event_1</t>
+  </si>
+  <si>
+    <t>target_1</t>
+  </si>
+  <si>
+    <t>test_1</t>
+  </si>
+  <si>
+    <t>value_1</t>
+  </si>
+  <si>
+    <t>d_event_2</t>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
+    <t>target_2</t>
+  </si>
+  <si>
+    <t>value_2</t>
+  </si>
+  <si>
+    <t>d_event_3</t>
+  </si>
+  <si>
+    <t>test_3</t>
+  </si>
+  <si>
+    <t>target_3</t>
+  </si>
+  <si>
+    <t>value_3</t>
+  </si>
+  <si>
+    <t>d_event_4</t>
+  </si>
+  <si>
+    <t>test_4</t>
+  </si>
+  <si>
+    <t>target_4</t>
+  </si>
+  <si>
+    <t>value_4</t>
+  </si>
+  <si>
+    <t>d_event_5</t>
+  </si>
+  <si>
+    <t>test_5</t>
+  </si>
+  <si>
+    <t>target_5</t>
+  </si>
+  <si>
+    <t>value_5</t>
+  </si>
+  <si>
+    <t>d_event_6</t>
+  </si>
+  <si>
+    <t>test_6</t>
+  </si>
+  <si>
+    <t>target_6</t>
+  </si>
+  <si>
+    <t>value_6</t>
+  </si>
+  <si>
+    <t>d_event_7</t>
+  </si>
+  <si>
+    <t>test_7</t>
+  </si>
+  <si>
+    <t>target_7</t>
+  </si>
+  <si>
+    <t>value_7</t>
+  </si>
+  <si>
+    <t>d_event_8</t>
+  </si>
+  <si>
+    <t>test_8</t>
+  </si>
+  <si>
+    <t>target_8</t>
+  </si>
+  <si>
+    <t>value_8</t>
+  </si>
+  <si>
+    <t>d_event_9</t>
+  </si>
+  <si>
+    <t>test_9</t>
+  </si>
+  <si>
+    <t>target_9</t>
+  </si>
+  <si>
+    <t>value_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,9 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77FA86C-4A3F-4A07-836B-799167266CB3}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,16 +541,129 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
